--- a/500all/speech_level/speeches_CHRG-114hhrg96879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,42 +52,24 @@
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chairman, and thank you for calling today's hearing on a topic that we are both passionate about. And thanks to all of our witnesses for being here today. I am especially excited to have Dr. Jim Moyer from Washington State University here to share his perspective on this issue, and explain some of the great research being done at Washington State University. Dr. Moyer is the Associate Dean of Research for the College of Agricultural, Human, and Natural Research Sciences at Washington State University, and while the main campus is located Pullman on the eastern side of Washington State, and closer to Congressman Newhouse's region, they also have an extension in Mt. Vernon in my district, and an extension where they are doing fantastic work, particularly in agriculture. So Dr. Moyer has been doing research in the field for over 30 years. Sorry to date you there. I am very proud to have him here. And we look forward to your testimony.    Research provides the foundation for innovation, particularly in agriculture. Not only that, but it is important that researchers have the certainty to see a project through to the end. Starting and stopping research because funding runs out is highly detrimental. As a former businesswoman, I understand that when the Federal Government invests in research, it saves us money in the long run. And it might not always be clear to everyone why basic research is important or what it will teach us, but that work has been very critical. There is even an award called the Golden Goose Award which celebrates obscure science to show how basic research, even research that may sound odd, can lead to major breakthroughs and significant impacts on society.    Last year, as hopefully everyone in this room knows, we passed a 5 year farm bill. A very important part of that 2014 Farm Bill, for my district and for many others, was that it included unprecedented funding levels for research on specialty crops, some of which is being done at Washington State University's Mt. Vernon campus. Programs like the Specialty Crop Research Initiative, SCRI, gives us a great return on our investment. And we are fortunate to have fantastic universities across the country doing all kinds of valuable research. The Agriculture Committee recently held a hearing to mark the 125th anniversary of the enactment of the Second Morrill Act of 1890, which authorized additional direct appropriations for the land-grant colleges of agriculture that had been established under the First Morrill Act of 1862. Not investing in research harms our economic competitiveness, and hinders the important work that has been started in many areas.    I am pleased we are holding this hearing to learn about the innovative work being done throughout the research, extension, and education communities, and to learn about the challenges that you are facing.    So thank you again, Mr. Chairman, for holding this hearing. And I yield back.    The Chairman. Thank you, Ranking Member DelBene.    The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, and to ensure there is ample time for questions. The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in the order of their arrival. I do appreciate the Members' understanding.    Witnesses are reminded to limit their oral presentations to 5 minutes. All written statements will be submitted for the record.    Again, I would like to welcome all of our witnesses to the table. Dr. Hauser, Dr. Moyer, and now I would like to also welcome Dr. Mindy Brashears, the Director of the International Center for Food Industry Excellence, at Texas Tech University in Lubbock, Texas. It is okay, it is not the University of Illinois, and Mike is not here to hear that. Dr. Michael Heithaus, the Associate Dean of the College of Arts and Sciences at Florida International University in North Miami, Florida. And thank you for spending a few minutes with your Congressman, Carlos Curbelo, as he came by earlier today too. Dr. Michael P. Lacy, Professor and Department Head, the Department of Poultry Science at the University of Georgia in Athens, Georgia. And Dr. Douglas D. Buhler, Senior Associate Dean for Research in the College of Agriculture and Natural Resources at Michigan State University in East Lansing, Michigan. And I ask that you and my colleague, Mr. Moolenaar, take it easy on the University of Illinois this year in football.    Dr. Hauser, speaking of the University of Illinois, please begin when you are ready.    STATEMENT OF ROBERT J. HAUSER, Ph.D., DEAN, COLLEGE OF </t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Hauser</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hauser. Mr. Chairman, and distinguished Members of the Subcommittee on Biotechnology, Horticulture, and Research, as mentioned, I am Bob Hauser, Dean of the College of Agricultural, Consumer and Environmental Sciences. At Illinois, the Experiment Station and the Illinois Extension is also under the Dean's supervision.    Thank you for the opportunity to testify on the subject of agricultural research and innovation. I will focus my remarks on agricultural research issues related to major crops and renewable energy crops, and the role of USDA-NIFA funding.    While my written testimony expands on points made during the next 4 or 5 minutes, I would like to emphasize three take-home messages. First, Federal-state partnership for agricultural research between USDA and state agricultural experiment stations has been a huge success, and we need to ensure that same success, going forward, by ensuring appropriate capacity. Second, agricultural research and development benefits greatly from partnership between public and private institutions. And finally, the need for agricultural research, especially among major crops, is absolutely critical for consumers at home and worldwide.    For context, our college research derives support from many sources, with annual research expenditures at about $45 million. Our competitive research support from USDA is roughly equal to our USDA formula funds, and we are funded at higher levels from other Federal agencies and from private companies. We have also been awarded significant grants from the USAID.    Now, I cited several, several, examples in my written testimony of successful crop research assisted by USDA-NIFA involving nitrogen uptake, flowering response, photosynthesis, planting density, and on and on, and these successes often involve other efforts and partnerships at the University of Illinois involving, for example, our Plant Breeding Center and the Energy Biosciences Institutes, and others, but an important point is that USDA projects are instrumental in a positive proof of concept, and then leveraged into much, much more. Another thing to keep in mind is that we translate science for use in practice, whether it is technology or whether it is information. I just mentioned some technology examples, but a couple of other information examples include USDA assistance in helping us develop FarmDoc, a leading platform for farm and risk management research and decision tools, and USDA has also helped us put the timely information in the hands of producers during the implementation of the most recent farm bill. Again, as illustrated by most of these examples, we like to leverage resources through these partnerships. Just yesterday, for example, a major chemical and agricultural technology company launched an innovation center on our campus that looks to partner with us in many ways, including improved cropping systems. But we do have some challenges. Those challenges are often related to declining state support for agricultural research and extension. As higher education relies more on tuition, we cannot justify subsidizing agricultural research activity with student dollars. With respect to crop science, attracting a sufficient, number of top students is an issue, even though the jobs are plentiful for those students. A research productivity in this area measured in a competitive grant funding has been excellent, but crop research, like all research in academia, is driven by grant opportunities. But funding for the locally applied research, that locally applied research in this area, has diminished. Illinois has lost substantial capacity for crops research, and one example is the recent budget cut devoted to crops in four field research centers. But despite these challenges, were all exceptional opportunities for Illinois and our sister institutions.    Secretary Vilsack addressed us on campus about international food security a couple of weeks ago, and he emphasized the need to invest more in agricultural research and education because all are beneficiaries of agriculture, he argued, and consequently, land-grant universities must have capacity to conduct agricultural research and education in the next levels of competency.    I want to wrap things up here with four policy implications. First, agriculture, especially major crop agriculture, has global implications. Invest to meet those global challenges, but understand the importance of science applied locally. Two, emphasize partnerships appropriately. Be willing to apply Federal resources as a public good where the gaps exist. Three, emphasize competitiveness, but be smart about capacity, and work with the states to ensure the health of land-grant institutions. And finally, and this is very important, universities invest in scientific research in response to grantors. If resources are not apparent in agriculture, universities will invest in other areas.    So with that, I wish to thank the Committee again for the opportunity to share our perspective, and we very much appreciate your support of agricultural research, education, and outreach.</t>
   </si>
   <si>
-    <t>Moyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Moyer. Thank you, Mr. Chairman, Ranking Member DelBene, Congressman Newhouse, and other Members of the Subcommittee.    Washington agriculture is one of the most diverse in the United States, growing over 200 different crops, many of which are classified as specialty crops. Washington is number one nationally in the production of ten of those crops, including apples, cherries, hops, and pears, and second in production of eight others, including grapes, onions, and potatoes. Specialty crops represent more than \\1/2\\ of Washington's agricultural economy, and play a significant role in the agricultural economy of many other states as well. And further, specialty crops provide the fruits and vegetables that are the foundation of a healthy diet for everyone.    Feeding an increasing global population in the face of 21st century challenges that include climate change, diminishing water supplies, and disease and pests, requires 21st century research responses. This morning, I would like to highlight WSU's unique contributions to the Specialty Crop Research Initiative, or SCRI, funded by the USDA, National Institute of Food and Agriculture, as part of that solution.    SCRI is designed to serve the needs of the broader national agriculture industry by requiring multi-institutional and stakeholder involvement. This is a thoughtful feature that brings together the expertise needed to address complex problems, and to assure relevance. Since 2008, WSU faculty have been lead investigators, or funded collaborators, on 38 SCRI program grants that brought over $36 million to WSU to support Washington's agriculture, and a similar amount was awarded to collaborating land-grant institutions. These grants funded research to improve production practices, develop systems approaches to crop management, study climate change, pest and disease management, precision agriculture and automation, and develop genomic and bioinformatics tools to aid plant breeding efforts.    This morning, I will highlight two projects that demonstrate the critical value of SCRI. First, is research on biodegradable plastic fabric for mulches. WSU, with collaborators, studied mulch fabrics that suppress weeds and saves water, and can also be used for high tunnels that prolong the growing season. This was only possible because of the research collaboration among five universities and farmers. In addition, the results allowed farmers from Washington, Tennessee, and Texas to access niche markets for strawberries, and to improve yields of other crops such as tomatoes. Further, researchers collected valuable information that was previously unavailable. They first collected information on the performance of biodegradable plastic fabrics used to construct the tunnels and mulch covers. They also collected information on the effects of biodegradation of microbial communities in soil, and identify fungi and bacteria responsible for degradation. This research led to a second project, now underway, focused on developing non-woven polymers that can be used to manufacture fabrics that have high utility as biodegradable mulch.    The second example I will share is actually two projects that seek to improve the accessibility and application of the vast amounts of genomic data available for specialty crops. The data is valuable because it can be used to identify genes responsible for specific traits, and then by plant breeders to integrate these traits into varieties. The first project is the Genomic Database for Rosaceae, which is led by Dorrie Main. This is a publicly available database with whole genome sequences, and genetics and breeding data for apples, peaches, and strawberries, and partial sequences and data for other crops such as almonds and pears that can be used for breeding projects. In addition to SCRI funding, this research is supported by several other sources, including the National Science Foundation and the Washington Tree Fruit Commission.    In the other project known as RosBREED, scientists from WSU and Michigan State University are leading 35 scientists from 14 U.S. institutions to utilize information from 22 U.S. Rosaceae crop breeding programs. This initial project was so successful that a second phase was funded to develop and apply 21st century DNA tests and breeding methods to produce new varieties with improved horticultural quality and disease resistance.    I have provided additional testimony for the record, describing these examples and the importance of SCRI funding to Washington agriculture.    I thank you for this opportunity to offer the testimony today. Thank you.</t>
   </si>
   <si>
-    <t>Brashears</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Brashears. Thank you very much.    Mr. Chairman and Members of the Committee, thank you very much for allowing me to speak today about the importance of food safety research, and the need for future funding in this area. I am a Professor of Food Safety and Public Health at Texas Tech University, and I have spent my career studying this important topic.    August 13, 1997, was a very significant day in my life. Not only was it my first day on the job as an Assistant Professor at the University of Nebraska, it was also the day of the Hudson Foods ground beef 25 million pound recall due to E. coli O157:H7 contamination, which was, at the time, the largest recall in U.S. history.    Hudson Foods was located in Columbus, Nebraska, and I was hired with an extension role to work directly with the industry and to field media requests. I remember being interviewed on that first day, and I tried to be reassuring, but really wondering how can we ever solve this problem. On a day I expected to be unpacking boxes, I instead was thrown into the deep end of one of the biggest food safety crises in U.S. history.    It turns out when you are thrown into the deep end, you can either sink or swim, or be thrown a life preserver. A life preserver is what I was given in the form of strong research funding to develop innovative technologies to control this pathogen.    Later, I transferred to Texas Tech University, which is in the heart of the cattle-feeding industry. I partnered with other faculty to conduct several feeding studies to determine if a cattle probiotic I had developed controlled pathogens in the feedlot. To make a long story short, it did work. After several studies, we found that E. coli can be reduced up to 50 percent in live animals; thus, reducing the risk of product contamination. This product has been commercialized and is used in many feedyards across the United States.    Many other things happened in the beef industry to improve safety, including the implementation of HACCP and the use of antimicrobial interventions. I was able to set up a pathogen processing lab at Texas Tech where we developed and validated many interventions and simulated food processing environments. We formed a strong research team in the International Center for Food Industry Excellence, adding additional faculty and moving into new facilities.    When you jump ahead to 2015, there is great news. Investment in food safety research in the past 20 years has saved lives. In the early 1990s, we were scrambling for solutions to control E. coli, but Federal investment in translational research delivered effective controls. The FSIS testing shows that ground beef contamination has fallen more than 90 percent, and the CDC reports that the human incidence has been cut in half. However, the food safety problem is far from being solved. The incidents of Salmonellosis remains steady, and illnesses associated with Campylobacter are actually rising. Antibiotic resistance actually decreases our ability to treat many of the illnesses associated with these pathogens. The availability of funds for food safety research has decreased, which leaves scientists scrambling for limited resources.    Research at Texas Tech can address problems on both the pre- and post-harvest side of food processing. For example, recent data indicates that the probiotic that reduces E. coli in cattle also reduces Salmonella in lymph nodes, which is a significant source of beef contamination. We have several studies underway, studying the mechanisms associated with the emergence of antibiotic resistance. And finally, we have molecular scientists who study detection technologies so we can react to problems quickly. We are well poised and ready to meet emerging food safety challenges. Also, of critical importance, is a transfer of our knowledge to our stakeholders. We have engaged social scientists as a key part of our research team to study human behavior in the food plant environment in order to effectively implement useful technologies. I am finding that more scientists like myself are engaging with social media to provide clarity to consumers. I personally have a a site on social media, The Food Doctor, which can be found on Facebook, where I provide science-based information to the public.    In summary, investments in research and education save lives. There is a need to address food safety issues in the U.S. and globally to improve the quality of life, and to protect public health for our population. Funding is the key to develop new technologies to control emerging pathogens, and to communicate science-based information to our final stakeholders.    Thank you very much, and I will be happy to answer any questions.</t>
   </si>
   <si>
-    <t>Heithaus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Heithaus. Thank you. Chairman Davis, Ranking Member DelBene, Members of the Committee, especially our Florida friends, Congressman Yoho and Congresswoman Graham. It is an honor to be here to discuss some of the innovations advanced at Florida International University aimed at enhancing agricultural science and research nationwide.    FIU is Miami's only public research university, and is the fourth largest university in the country, enrolling 55,000 students and conducting over $130 million of research every year. We see FIU as a national resource for agricultural research at the USDA, who hired 50 of our grads last year.    Together with the state's land-grant institution, University of Florida, and Miami-Dade County's agricultural office, led by Charles Laprad, FIU is helping address three major agricultural crises in our service area, whose ag industry employs over 20,000 people, and produced more than $2.7 billion in economic impact each year for the county. So these risks to our subtropical and tropical crops and ornamentals include exotic pests and disease, like citrus greening and laurel wilt that are being introduced into the U.S. at alarming rates. They have cost Miami-Dade County billions of dollars in treatment, eradication programs, and lost revenue. Local weather patterns and climate are shifting, and it is going to affect the crops we can grow and threatens food security. This is compounded with the water management challenges to ensure that we balance the needs of urban, agricultural, and natural systems. Finally, agriculture is an industry with an aging workforce. We have to find ways to bring in more young people and to diversify.    I would like to share some thoughts on the unique ability of our country's Hispanic-serving agricultural colleges and universities, or HSACUs, of which there are 80 countrywide, to accelerate research and better complement the extension and teaching of our land-grants. In many ways, the collaboration and complementary roles played by FIU and UF are a metaphor for the future collaboration with HSACUs and what it should look like. As we see in Miami-Dade County, these agricultural challenges are too important to leave to a single institution. As a testament to FIU's efforts, it was one of the first universities in the nation to receive USDA's HSACU designation. And although FIU faculty staff and students are helping to address the challenges I mentioned previously, Federal partnerships and competitive funding are critical to ensuring that we maximize our impact.    I would like to highlight four of our impact areas. First, we are helping to develop more resilient crops. Our researchers are working with collaborators to develop new crop varieties like chickpeas, lentils, and mangos that are more resilient to changes in climate. The wild relatives of our domesticated crops are better able to survive variation in growing conditions like droughts or too much rainfall. By using cutting-edge genetic techniques, we can incorporate that hardiness of the wild relatives of the crops, while maintaining the benefits of the domestic varieties.    We are also helping to combat invasive pests. The aggressive Asian Redbay Ambrosia Beetle has Florida's multimillion dollar avocado industry in limbo. The insect spreads laurel wilt, which is deadly to avocado trees. And our researchers, led by our Provost, Dr. Ken Furton, have developed a unique detection program called Detector Canines that couples drone technology and canine scent detection. And this is a really important approach because it holds promise for detecting emerging diseases before they become so widespread that the cost of combating them just becomes crippling to an industry.    We are also working with the University of Florida to build an agribusiness incubator that will help generate high-tech solutions, and add value to raw agricultural products that will help overcome food waste challenges, while stimulating further economic activity.    Finally, we are training the next generation of farmers, particularly from underrepresented groups. The FIU Agroecology Program, with its partners, has trained hundreds of students and developed a veteran and small farmer training program.    So what is the future of our nation's Hispanic-serving institutions in agriculture? Congress and USDA have made important strides to engage with the greater Hispanic-serving community, and particularly the heavy lift by the National Institute on Food and Agriculture, and several of its leaders like Director Ramaswamy and Drs. Qureshi and Lawrence.    There are lots of examples with direct impact, but there are two thoughts on specific policy challenges. First, we have to build capacity at HSIs through the HSACU programs. Post-secondary Hispanic students are now enrolled mostly at HSIs, with over 60 percent of Hispanics nationwide at these institutions. Hispanics represent 50 percent of all farm laborers and supervisors, but only three percent of doctoral recipients in the biological agricultural and life sciences. So we are leaving a ton of talent untapped, and we have not funded any of the programs authorized in 2008 for the HSACU.    Second, we need to incorporate the Hispanic-serving institutions into the land-grant ecosystem. As UF and FIU have proven, collaboration between a land-grant and an HSI is a win for all involved. We need much more such collaborations around the country, and ways to incentivize better collaboration. There is tremendous opportunity in the future, and FIU looks forward to working with Congress and the USDA to accelerate agricultural research, extension, and teaching.    Thank you very much.</t>
   </si>
   <si>
-    <t>Lacy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lacy. Chairman Davis, Ranking Member DelBene, distinguished Committee Members, I am grateful for the opportunity to represent the University of Georgia College of Agricultural and Environmental Sciences, and all land-grant universities across the nation to talk about the intrinsic value and vital role public university research plays in keeping American agriculture strong, our economy growing, and the world adequately nourished.    I want to specifically thank Congressman Austin Scott, one of the University of Georgia's most distinguished alumni, for his support. He is a tremendous advocate for agriculture.    All agricultural research is important, however, in this brief testimony, it will be best for me to focus on my area of expertise; poultry science. Nowhere else is agricultural research so open and readily accessible to farmers and consumers as it is in the United States. This unique quest for and application of new information relevant to agriculture is directly attributable to our land-grant university system. The land-grant model, coupled with USDA-ARS form a powerful combination that is the envy of the world in its effectiveness at addressing the critical needs of food production.    A great example of that land-grant USDA collaboration can be seen in UGA and USDA efforts to address the threat of avian influenza. Earlier this year, the U.S. faced a renewed threat to our food security as AI spread through 21 western and central states, resulting in the loss of over 50 million birds, including 16 percent of the nation's egg-producing flocks. As waterfowl that carry the AI virus migrate south this fall, the threat of this disease intensifies. Because of the sheer size of the poultry industry in Georgia, a serious outbreak in our state would be devastating to our economy, and would impact the entire U.S. food supply. We have been conducting intensive programs to help producers strengthen biosecurity procedures to protect their poultry flocks. Our scientists have worked tirelessly on research related to response plans, humane euthanasia methods, composting mass-mortalities, in the event of a catastrophic AI outbreak.    The USDA Southeast Poultry Research Laboratory in Athens, Georgia, is recognized as one of the leading poultry disease research facilities in the world. The work done there is of a measurable importance to the health of the nation's poultry flocks. The need for funding, recommended to expand the research facilities at SEPRL, is strategic and vital, as the serious consequences of the current AI situation vividly highlight.    In concert with the biosecurity efforts focused on poultry producers, UGA 4-H is piloting a program with the Centers for Disease Control and Prevention to teach biosecurity principles to even our youngest citizens, helping them better understand and prevent disease transmission.    Continuing this poultry health theme, interest in minimizing the use of pharmaceuticals has spurred research at UGA on novel ways to protect poultry from diseases such as coccidiosis. Non-disease-causing variants of the protozoa that cause this disease have been isolated, that allow poultry to develop resistance without contracting the actual disease. These variants have been employed to produce an effective vaccine now used extensively by poultry producers.    Ag engineers and poultry scientists at UGA teamed up to address the serious problem of heat stress in fast-growing meat-type chickens. This work resulted in the development of ventilation and cooling systems which have eliminated both heat-related mortality and stunted growth during the hot summer months.    I could list scores and scores of additional research projects that have had significant impact in poultry genetics, nutrition, food safety, et cetera, but in the final minute I have, allow me to call attention to the recent National Academy of Sciences report titled, The Critical Role of Animal Science Research in Food Security and Sustainability. This report details the important accomplishments of animal agriculture research, and documents the alarmingly small amount of USDA funding focused on animal agriculture, relative to its economic importance and future expectations. As this report concludes, the need for additional investment in animal agriculture research is critical.    I do wish to thank the Committee for authorizing the extension of the Animal Health Research and Disease Section 1433 Program. Full funding of the 1433 Program is still needed. A well-thought-out research blueprint has been established. The animal agriculture research community and industry counterparts came together in 2012 and identified research priorities which were published in the Farm Animal Integrated Research report, FAIR 2012. We are prepared to meet the challenges facing the future of animal agriculture when research funding is available.    Again, I sincerely thank the Committee for your interest in and support of agriculture research. That support is never taken for granted. Thank you for the foresight you have in regard to providing the investment required to make the advancements needed to assure food security for a growing global population.</t>
   </si>
   <si>
@@ -97,15 +79,9 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Go Dogs.    The Chairman. Dr. Buhler, please.         STATEMENT OF DOUGLAS D. BUHLER, Ph.D., SENIOR         DIRECTOR, MSU AgBioResearch, EAST LANSING, MI</t>
   </si>
   <si>
-    <t>Buhler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Buhler. Well, thank you. Chairman Davis, Ranking Member DelBene, Congressman Moolenaar, thank you very much for the opportunity to be here today, and represent the hardworking research scientists and prevention professionals at Michigan State University.    One of the benefits of going last is I can start out by saying I want to concur with all of the comments that have been made by the previous speakers. The critical nature of what we do has always been important to this country and the world, but I believe it is more important now than it has ever been as we look at the challenges of feeding a growing world, with the challenges that we face in terms of protecting our natural resources, et cetera.    Michigan State University is very, very fortunate to have very strong support from the State of Michigan and industry partners. That support is very important because it allows us to leverage the Federal investment in our research and outreach programs. And so I really wanted to acknowledge that.    Founded in 1855, Michigan State University was the first agricultural college of its kind in the country. It was actually founded as--it was called the Michigan Agriculture College. So we have very strong roots in agriculture, and if you look at the history of the institution, it is a very interesting history of starting from a state-based regional agricultural college, and growing into a world-class university, really starting and throughout the end of World War II to the present. Michigan is also a very heavily specialty crop state. And when you look at Michigan and you look at our geography, a lot of the places where we grow crops are very unique. And so when we talk about the importance of the Federal investment and the state investment in protecting our specialty crops, it is very critical because many of these crops depend on the university for support. These crops are very important locally, but they are not major crops on a national scale. And so you look at things like tart cherries, asparagus, things like that, that grow in a very unique environment, and so if the university is not there to support these industries, there is not a lot of back-up. And it is really important that we continue to support the public-sector research and outreach to support these important commodities.    I also want to point out that a lot of the work that we do is often difficult to quantify because a lot of it is protecting productivity as opposed to really generating new outputs. And what I am particularly talking about here is pest management. We have made a great deal of investments to protect the inherent productivity of our crops, and that is something that we really need to keep in mind as we look forward because a huge part of what we do, whether it is in the animal industries or the crop industries, is protecting the productivity that we have inherent in our genetics and our environments where we grow our crops.    So Michigan State University, as I said, is really rooted in agriculture. Many of the early pioneers at our institution were involved in things like helping to develop hybrid corn, some of the early plant breeding programs. Plant breeding and genetics continues to be a core of what we do, particularly in the specialty crops. For example, our edible Dry Bean Program has been producing a new variety that has been released into the industry at a rate of at least one per year over the last 20 years. We have also been very involved in processing, particularly in the dairy industry, and we will continue to work in those areas.    An area that I want to make a little bit of a point on, and it is really critical as we move forward, is that we look at the issues that are facing us in the future, they are very complex problems. And as we look at how do we attack some of these big problems like antimicrobial resistance, which has been mentioned, some of the weather issues, and others, climate and so on, some of the water issues, we really need to draw a broader range of scientists into our agricultural fields. We really need to bring in fundamental plant science, fundamental ecology, and things like that, and build teams that can address these issues in a multidisciplinary way. This often requires different funding, and it often requires, and would be very much improved if we could provide more opportunities to work across Federal agencies, particularly NIH and NSF, to bolster some of our agricultural investments. And so we really look forward to continuing to build some of these programs because we think that it is really critical to moving forward in the future.    So I just want to wrap up by just making a point about the importance of the agricultural infrastructure and the facilities that we need simply to do our research. Agriculture, in many cases, is a little bit different than many of the other areas of science, in that we need long-term investments in things like animal herds, plant breeding programs, vineyards and orchards, to just give us the basic capacity to do our work. And that is really where, when you talk about why is agriculture different than other areas of science, I believe that is where that is rooted. We have to have these facilities available, often taking 20, 30, maybe even 50 years to build that capacity so that we can actually do our research. And so when I am asked why should agriculture have this more unique investment, that is the reason that I cite.    So thank you again for this opportunity, and we really appreciate your support, and we look forward to moving forward and addressing these important issues of our country and the world. Thank you.</t>
   </si>
   <si>
@@ -178,18 +154,12 @@
     <t>400263</t>
   </si>
   <si>
-    <t>James P. McGovern</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McGovern. Thank you. I appreciate it.    And I really don't have any questions either, other than to say thank you to the panel. I think it is really important that you are here and talking about the incredible research that you are all doing; because, for a lot of Members of Congress, especially those who are not on this Committee, they don't quite make the connection between our agricultural colleges and universities and what they contribute in terms of agriculture, but in terms of business and in terms of the economy. So I appreciate you being here.    I have seen firsthand how important our land-grant universities are and the incredible work they are doing. I am proud to represent the flagship campus of the five-campus University of Massachusetts system, the UMass Amherst, in Amherst, Massachusetts. And over the years, UMass has expanded into a major research university that covers many areas of research and education, including cutting-edge research and advanced materials and manufacturing, applied life sciences and health data science, and security and many other important fields, driving economic growth in Massachusetts and across the country. But through all that transformation, the school has never forgotten its proud history and roots as an agricultural institution. And I have seen firsthand some of the most innovative and exciting projects revolve around agriculture. Some of you pointed out that some of what you do is unique to the states and areas that you live in. In Massachusetts I have seen this incredible cutting-edge research on cranberries out of UMass. But what is equally exciting to me is the work that they are doing to help, not only protect our food here in the United States, but help find ways to feed the hungry around the world, and to deal with plant diseases and animal diseases, and all the kinds of stuff that oftentimes result in catastrophes.    So I am just here to say thank you. I support our investment in all of you, and it is important that we brag about it a little bit more because I am not always sure that people get it. When you think of agriculture, oftentimes people don't automatically think about colleges and universities; they think of people working on a farm. But, like I said, I have seen firsthand in my own state, and you have all talked about it here today, unbelievable research. It is worth every penny. And it is cost-effective and you have saved lives in the process too. So anyway, I just wanted to say thank you.    I yield back.    The Chairman. Thank you. And I echo the comments from my colleague, Mr. McGovern. And thank you for those comments too.    Mr. Moolenaar, is recognized for 5 minutes.</t>
   </si>
   <si>
     <t>412634</t>
   </si>
   <si>
-    <t>John R. Moolenaar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman. And I also want to thank all of you as panelists for being here, and especially appreciate Dr. Buhler from Michigan State University. We are very proud of Michigan State.    And I wanted to just direct some of my questions to you if that is all right, and then maybe have one question for the entire group. But first of all, thank you for testifying. And Michigan State has really played a lead role in our country, and especially in our state, in agricultural research. And I had a few questions for you based on the understanding I have, and these are kind of technical questions, but one of the questions would be on the Hatch Act, requiring dollar-for-dollar matching funds from state-appropriations. Also requires each state to use 25 percent of its Hatch Act funds to support multi-state or regional research. Do you believe those percentages should be modified at all, or is that the right approach?</t>
   </si>
   <si>
@@ -229,9 +199,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. And I appreciate you all being here. And, Dr. Heithaus, I appreciate you being a fellow Floridian and doing the research you guys do.    Working off Congressman Moolenaar here, aside from the communications on the success of ag research, how do you believe we can help elevate the importance of ag research? You guys are doing incredible research. I mean it is phenomenal. I look at what we have done in Florida, like on the Papaya Ringspot Virus. It was done over 10 years ago but yet we haven't been able to market it because of the threat of GMO. And, to do the research is great, but if we can't market that--I would like to hear from you guys. What are your thoughts on how we can do that better, because we are constantly being bombarded, and there is a lot of false science out there and a lot of fear, and, of course, there are people that are fueling that, and it is crippling the end-use of what you guys have created. So I will start with you, Dr. Heithaus.</t>
   </si>
   <si>
@@ -283,9 +250,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. And I appreciate having Mr. Yoho in my debt for over 1 minute, let the record show. But thank you very much for having this hearing. I want to welcome Dr. Moyer and his participation here today. As a WSU alumnus myself, I have a soft spot for Washington State University, and really appreciate your being here to participate today.    Some of the--I don't know if you even know this, but some of the research that is happening at WSU is--there is a small project on my own farm where Dr. Michelle Moyer and--I don't think any relation, and her research team, part of which is my own daughter, Jensina, is working on some wine grape projects on our own farm. So I am very much personally aware of the importance of ag research. As the former director of agriculture for the State of Washington, also very happy to have been a great partner, our agency and--as Washington State University, and so appreciate everything that you do. With all of our representatives here from research universities around the country, I don't understand why the line isn't out the door this morning to listen to some of the exciting things that are happening in agricultural research. Every one of us, as Americans and citizens of the world, are a part of agriculture at least three times a day, and this is very exciting, the important stuff that we are working on.    Dr. Moyer, you talked a little bit about the Specialty Crop Research Initiative Program, and I helped to administer that, was responsible for making sure that projects that were worthy were selected, and important enough to get the funding. I wanted to give you a little bit of an opportunity to elaborate on the importance of that, maybe help explain to some of my colleagues who may not be as informed on what the Specialty Crop Program does and can do?</t>
   </si>
   <si>
@@ -323,9 +287,6 @@
   </si>
   <si>
     <t>412317</t>
-  </si>
-  <si>
-    <t>Glenn Thompson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman. Thanks to all of you on the panel. This is a very important topic. The research that you do, or universities do. I have to do a shout-out to my university where I graduated, Penn State University, their agricultural sciences. What you all do is about national security. I would say it is one of the number one important things we have for national security, but it is also about combating hunger.    And so my first--Dr. Brashears, is there an estimate in terms of the work from biotechnology of essentially--I mean just cut to the quick, how many lives that have been--how many people have been prevented from starvation because of the result of biotechnology being applied in agriculture? Are there any estimates at all?</t>
@@ -820,11 +781,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -844,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -870,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -896,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -922,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -948,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -974,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1000,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1026,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1052,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1078,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1104,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1132,11 +1069,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1156,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1184,11 +1117,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1208,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1236,11 +1165,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1260,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1288,11 +1213,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1312,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1338,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1366,11 +1285,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1390,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1418,11 +1333,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1442,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1468,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1494,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1520,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1546,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1572,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1598,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1624,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1650,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1676,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1702,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1728,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1754,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1780,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1806,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1832,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1858,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1884,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>57</v>
-      </c>
-      <c r="H43" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1910,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1936,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1962,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1988,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2014,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2040,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2066,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2092,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2118,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2144,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2170,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2196,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2222,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>71</v>
-      </c>
-      <c r="H56" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2248,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2274,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2300,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2326,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2352,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2378,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2404,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2430,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2456,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2482,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2508,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2534,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2560,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2586,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2612,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2638,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2664,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2690,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2716,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
         <v>89</v>
-      </c>
-      <c r="H75" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2742,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
-      </c>
-      <c r="G76" t="s">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2768,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2794,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>102</v>
-      </c>
-      <c r="G78" t="s">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2820,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2846,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>102</v>
-      </c>
-      <c r="G80" t="s">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2872,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
-      </c>
-      <c r="G81" t="s">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2898,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2924,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" t="s">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2952,11 +2749,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2976,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3004,11 +2797,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3030,11 +2821,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3054,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3082,11 +2869,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3106,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3132,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3160,11 +2941,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3184,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3212,11 +2989,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3236,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3262,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3288,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3314,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3340,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>70</v>
-      </c>
-      <c r="G99" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3366,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>70</v>
-      </c>
-      <c r="G100" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3392,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>70</v>
-      </c>
-      <c r="G101" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3418,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
-      </c>
-      <c r="G102" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3444,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3470,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>70</v>
-      </c>
-      <c r="G104" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3496,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3522,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3548,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3574,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>70</v>
-      </c>
-      <c r="G108" t="s">
-        <v>71</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,24 +55,45 @@
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chairman, and thank you for calling today's hearing on a topic that we are both passionate about. And thanks to all of our witnesses for being here today. I am especially excited to have Dr. Jim Moyer from Washington State University here to share his perspective on this issue, and explain some of the great research being done at Washington State University. Dr. Moyer is the Associate Dean of Research for the College of Agricultural, Human, and Natural Research Sciences at Washington State University, and while the main campus is located Pullman on the eastern side of Washington State, and closer to Congressman Newhouse's region, they also have an extension in Mt. Vernon in my district, and an extension where they are doing fantastic work, particularly in agriculture. So Dr. Moyer has been doing research in the field for over 30 years. Sorry to date you there. I am very proud to have him here. And we look forward to your testimony.    Research provides the foundation for innovation, particularly in agriculture. Not only that, but it is important that researchers have the certainty to see a project through to the end. Starting and stopping research because funding runs out is highly detrimental. As a former businesswoman, I understand that when the Federal Government invests in research, it saves us money in the long run. And it might not always be clear to everyone why basic research is important or what it will teach us, but that work has been very critical. There is even an award called the Golden Goose Award which celebrates obscure science to show how basic research, even research that may sound odd, can lead to major breakthroughs and significant impacts on society.    Last year, as hopefully everyone in this room knows, we passed a 5 year farm bill. A very important part of that 2014 Farm Bill, for my district and for many others, was that it included unprecedented funding levels for research on specialty crops, some of which is being done at Washington State University's Mt. Vernon campus. Programs like the Specialty Crop Research Initiative, SCRI, gives us a great return on our investment. And we are fortunate to have fantastic universities across the country doing all kinds of valuable research. The Agriculture Committee recently held a hearing to mark the 125th anniversary of the enactment of the Second Morrill Act of 1890, which authorized additional direct appropriations for the land-grant colleges of agriculture that had been established under the First Morrill Act of 1862. Not investing in research harms our economic competitiveness, and hinders the important work that has been started in many areas.    I am pleased we are holding this hearing to learn about the innovative work being done throughout the research, extension, and education communities, and to learn about the challenges that you are facing.    So thank you again, Mr. Chairman, for holding this hearing. And I yield back.    The Chairman. Thank you, Ranking Member DelBene.    The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, and to ensure there is ample time for questions. The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in the order of their arrival. I do appreciate the Members' understanding.    Witnesses are reminded to limit their oral presentations to 5 minutes. All written statements will be submitted for the record.    Again, I would like to welcome all of our witnesses to the table. Dr. Hauser, Dr. Moyer, and now I would like to also welcome Dr. Mindy Brashears, the Director of the International Center for Food Industry Excellence, at Texas Tech University in Lubbock, Texas. It is okay, it is not the University of Illinois, and Mike is not here to hear that. Dr. Michael Heithaus, the Associate Dean of the College of Arts and Sciences at Florida International University in North Miami, Florida. And thank you for spending a few minutes with your Congressman, Carlos Curbelo, as he came by earlier today too. Dr. Michael P. Lacy, Professor and Department Head, the Department of Poultry Science at the University of Georgia in Athens, Georgia. And Dr. Douglas D. Buhler, Senior Associate Dean for Research in the College of Agriculture and Natural Resources at Michigan State University in East Lansing, Michigan. And I ask that you and my colleague, Mr. Moolenaar, take it easy on the University of Illinois this year in football.    Dr. Hauser, speaking of the University of Illinois, please begin when you are ready.    STATEMENT OF ROBERT J. HAUSER, Ph.D., DEAN, COLLEGE OF </t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Hauser</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hauser. Mr. Chairman, and distinguished Members of the Subcommittee on Biotechnology, Horticulture, and Research, as mentioned, I am Bob Hauser, Dean of the College of Agricultural, Consumer and Environmental Sciences. At Illinois, the Experiment Station and the Illinois Extension is also under the Dean's supervision.    Thank you for the opportunity to testify on the subject of agricultural research and innovation. I will focus my remarks on agricultural research issues related to major crops and renewable energy crops, and the role of USDA-NIFA funding.    While my written testimony expands on points made during the next 4 or 5 minutes, I would like to emphasize three take-home messages. First, Federal-state partnership for agricultural research between USDA and state agricultural experiment stations has been a huge success, and we need to ensure that same success, going forward, by ensuring appropriate capacity. Second, agricultural research and development benefits greatly from partnership between public and private institutions. And finally, the need for agricultural research, especially among major crops, is absolutely critical for consumers at home and worldwide.    For context, our college research derives support from many sources, with annual research expenditures at about $45 million. Our competitive research support from USDA is roughly equal to our USDA formula funds, and we are funded at higher levels from other Federal agencies and from private companies. We have also been awarded significant grants from the USAID.    Now, I cited several, several, examples in my written testimony of successful crop research assisted by USDA-NIFA involving nitrogen uptake, flowering response, photosynthesis, planting density, and on and on, and these successes often involve other efforts and partnerships at the University of Illinois involving, for example, our Plant Breeding Center and the Energy Biosciences Institutes, and others, but an important point is that USDA projects are instrumental in a positive proof of concept, and then leveraged into much, much more. Another thing to keep in mind is that we translate science for use in practice, whether it is technology or whether it is information. I just mentioned some technology examples, but a couple of other information examples include USDA assistance in helping us develop FarmDoc, a leading platform for farm and risk management research and decision tools, and USDA has also helped us put the timely information in the hands of producers during the implementation of the most recent farm bill. Again, as illustrated by most of these examples, we like to leverage resources through these partnerships. Just yesterday, for example, a major chemical and agricultural technology company launched an innovation center on our campus that looks to partner with us in many ways, including improved cropping systems. But we do have some challenges. Those challenges are often related to declining state support for agricultural research and extension. As higher education relies more on tuition, we cannot justify subsidizing agricultural research activity with student dollars. With respect to crop science, attracting a sufficient, number of top students is an issue, even though the jobs are plentiful for those students. A research productivity in this area measured in a competitive grant funding has been excellent, but crop research, like all research in academia, is driven by grant opportunities. But funding for the locally applied research, that locally applied research in this area, has diminished. Illinois has lost substantial capacity for crops research, and one example is the recent budget cut devoted to crops in four field research centers. But despite these challenges, were all exceptional opportunities for Illinois and our sister institutions.    Secretary Vilsack addressed us on campus about international food security a couple of weeks ago, and he emphasized the need to invest more in agricultural research and education because all are beneficiaries of agriculture, he argued, and consequently, land-grant universities must have capacity to conduct agricultural research and education in the next levels of competency.    I want to wrap things up here with four policy implications. First, agriculture, especially major crop agriculture, has global implications. Invest to meet those global challenges, but understand the importance of science applied locally. Two, emphasize partnerships appropriately. Be willing to apply Federal resources as a public good where the gaps exist. Three, emphasize competitiveness, but be smart about capacity, and work with the states to ensure the health of land-grant institutions. And finally, and this is very important, universities invest in scientific research in response to grantors. If resources are not apparent in agriculture, universities will invest in other areas.    So with that, I wish to thank the Committee again for the opportunity to share our perspective, and we very much appreciate your support of agricultural research, education, and outreach.</t>
   </si>
   <si>
+    <t>Moyer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Moyer. Thank you, Mr. Chairman, Ranking Member DelBene, Congressman Newhouse, and other Members of the Subcommittee.    Washington agriculture is one of the most diverse in the United States, growing over 200 different crops, many of which are classified as specialty crops. Washington is number one nationally in the production of ten of those crops, including apples, cherries, hops, and pears, and second in production of eight others, including grapes, onions, and potatoes. Specialty crops represent more than \\1/2\\ of Washington's agricultural economy, and play a significant role in the agricultural economy of many other states as well. And further, specialty crops provide the fruits and vegetables that are the foundation of a healthy diet for everyone.    Feeding an increasing global population in the face of 21st century challenges that include climate change, diminishing water supplies, and disease and pests, requires 21st century research responses. This morning, I would like to highlight WSU's unique contributions to the Specialty Crop Research Initiative, or SCRI, funded by the USDA, National Institute of Food and Agriculture, as part of that solution.    SCRI is designed to serve the needs of the broader national agriculture industry by requiring multi-institutional and stakeholder involvement. This is a thoughtful feature that brings together the expertise needed to address complex problems, and to assure relevance. Since 2008, WSU faculty have been lead investigators, or funded collaborators, on 38 SCRI program grants that brought over $36 million to WSU to support Washington's agriculture, and a similar amount was awarded to collaborating land-grant institutions. These grants funded research to improve production practices, develop systems approaches to crop management, study climate change, pest and disease management, precision agriculture and automation, and develop genomic and bioinformatics tools to aid plant breeding efforts.    This morning, I will highlight two projects that demonstrate the critical value of SCRI. First, is research on biodegradable plastic fabric for mulches. WSU, with collaborators, studied mulch fabrics that suppress weeds and saves water, and can also be used for high tunnels that prolong the growing season. This was only possible because of the research collaboration among five universities and farmers. In addition, the results allowed farmers from Washington, Tennessee, and Texas to access niche markets for strawberries, and to improve yields of other crops such as tomatoes. Further, researchers collected valuable information that was previously unavailable. They first collected information on the performance of biodegradable plastic fabrics used to construct the tunnels and mulch covers. They also collected information on the effects of biodegradation of microbial communities in soil, and identify fungi and bacteria responsible for degradation. This research led to a second project, now underway, focused on developing non-woven polymers that can be used to manufacture fabrics that have high utility as biodegradable mulch.    The second example I will share is actually two projects that seek to improve the accessibility and application of the vast amounts of genomic data available for specialty crops. The data is valuable because it can be used to identify genes responsible for specific traits, and then by plant breeders to integrate these traits into varieties. The first project is the Genomic Database for Rosaceae, which is led by Dorrie Main. This is a publicly available database with whole genome sequences, and genetics and breeding data for apples, peaches, and strawberries, and partial sequences and data for other crops such as almonds and pears that can be used for breeding projects. In addition to SCRI funding, this research is supported by several other sources, including the National Science Foundation and the Washington Tree Fruit Commission.    In the other project known as RosBREED, scientists from WSU and Michigan State University are leading 35 scientists from 14 U.S. institutions to utilize information from 22 U.S. Rosaceae crop breeding programs. This initial project was so successful that a second phase was funded to develop and apply 21st century DNA tests and breeding methods to produce new varieties with improved horticultural quality and disease resistance.    I have provided additional testimony for the record, describing these examples and the importance of SCRI funding to Washington agriculture.    I thank you for this opportunity to offer the testimony today. Thank you.</t>
   </si>
   <si>
+    <t>Brashears</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Brashears. Thank you very much.    Mr. Chairman and Members of the Committee, thank you very much for allowing me to speak today about the importance of food safety research, and the need for future funding in this area. I am a Professor of Food Safety and Public Health at Texas Tech University, and I have spent my career studying this important topic.    August 13, 1997, was a very significant day in my life. Not only was it my first day on the job as an Assistant Professor at the University of Nebraska, it was also the day of the Hudson Foods ground beef 25 million pound recall due to E. coli O157:H7 contamination, which was, at the time, the largest recall in U.S. history.    Hudson Foods was located in Columbus, Nebraska, and I was hired with an extension role to work directly with the industry and to field media requests. I remember being interviewed on that first day, and I tried to be reassuring, but really wondering how can we ever solve this problem. On a day I expected to be unpacking boxes, I instead was thrown into the deep end of one of the biggest food safety crises in U.S. history.    It turns out when you are thrown into the deep end, you can either sink or swim, or be thrown a life preserver. A life preserver is what I was given in the form of strong research funding to develop innovative technologies to control this pathogen.    Later, I transferred to Texas Tech University, which is in the heart of the cattle-feeding industry. I partnered with other faculty to conduct several feeding studies to determine if a cattle probiotic I had developed controlled pathogens in the feedlot. To make a long story short, it did work. After several studies, we found that E. coli can be reduced up to 50 percent in live animals; thus, reducing the risk of product contamination. This product has been commercialized and is used in many feedyards across the United States.    Many other things happened in the beef industry to improve safety, including the implementation of HACCP and the use of antimicrobial interventions. I was able to set up a pathogen processing lab at Texas Tech where we developed and validated many interventions and simulated food processing environments. We formed a strong research team in the International Center for Food Industry Excellence, adding additional faculty and moving into new facilities.    When you jump ahead to 2015, there is great news. Investment in food safety research in the past 20 years has saved lives. In the early 1990s, we were scrambling for solutions to control E. coli, but Federal investment in translational research delivered effective controls. The FSIS testing shows that ground beef contamination has fallen more than 90 percent, and the CDC reports that the human incidence has been cut in half. However, the food safety problem is far from being solved. The incidents of Salmonellosis remains steady, and illnesses associated with Campylobacter are actually rising. Antibiotic resistance actually decreases our ability to treat many of the illnesses associated with these pathogens. The availability of funds for food safety research has decreased, which leaves scientists scrambling for limited resources.    Research at Texas Tech can address problems on both the pre- and post-harvest side of food processing. For example, recent data indicates that the probiotic that reduces E. coli in cattle also reduces Salmonella in lymph nodes, which is a significant source of beef contamination. We have several studies underway, studying the mechanisms associated with the emergence of antibiotic resistance. And finally, we have molecular scientists who study detection technologies so we can react to problems quickly. We are well poised and ready to meet emerging food safety challenges. Also, of critical importance, is a transfer of our knowledge to our stakeholders. We have engaged social scientists as a key part of our research team to study human behavior in the food plant environment in order to effectively implement useful technologies. I am finding that more scientists like myself are engaging with social media to provide clarity to consumers. I personally have a a site on social media, The Food Doctor, which can be found on Facebook, where I provide science-based information to the public.    In summary, investments in research and education save lives. There is a need to address food safety issues in the U.S. and globally to improve the quality of life, and to protect public health for our population. Funding is the key to develop new technologies to control emerging pathogens, and to communicate science-based information to our final stakeholders.    Thank you very much, and I will be happy to answer any questions.</t>
   </si>
   <si>
+    <t>Heithaus</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Heithaus. Thank you. Chairman Davis, Ranking Member DelBene, Members of the Committee, especially our Florida friends, Congressman Yoho and Congresswoman Graham. It is an honor to be here to discuss some of the innovations advanced at Florida International University aimed at enhancing agricultural science and research nationwide.    FIU is Miami's only public research university, and is the fourth largest university in the country, enrolling 55,000 students and conducting over $130 million of research every year. We see FIU as a national resource for agricultural research at the USDA, who hired 50 of our grads last year.    Together with the state's land-grant institution, University of Florida, and Miami-Dade County's agricultural office, led by Charles Laprad, FIU is helping address three major agricultural crises in our service area, whose ag industry employs over 20,000 people, and produced more than $2.7 billion in economic impact each year for the county. So these risks to our subtropical and tropical crops and ornamentals include exotic pests and disease, like citrus greening and laurel wilt that are being introduced into the U.S. at alarming rates. They have cost Miami-Dade County billions of dollars in treatment, eradication programs, and lost revenue. Local weather patterns and climate are shifting, and it is going to affect the crops we can grow and threatens food security. This is compounded with the water management challenges to ensure that we balance the needs of urban, agricultural, and natural systems. Finally, agriculture is an industry with an aging workforce. We have to find ways to bring in more young people and to diversify.    I would like to share some thoughts on the unique ability of our country's Hispanic-serving agricultural colleges and universities, or HSACUs, of which there are 80 countrywide, to accelerate research and better complement the extension and teaching of our land-grants. In many ways, the collaboration and complementary roles played by FIU and UF are a metaphor for the future collaboration with HSACUs and what it should look like. As we see in Miami-Dade County, these agricultural challenges are too important to leave to a single institution. As a testament to FIU's efforts, it was one of the first universities in the nation to receive USDA's HSACU designation. And although FIU faculty staff and students are helping to address the challenges I mentioned previously, Federal partnerships and competitive funding are critical to ensuring that we maximize our impact.    I would like to highlight four of our impact areas. First, we are helping to develop more resilient crops. Our researchers are working with collaborators to develop new crop varieties like chickpeas, lentils, and mangos that are more resilient to changes in climate. The wild relatives of our domesticated crops are better able to survive variation in growing conditions like droughts or too much rainfall. By using cutting-edge genetic techniques, we can incorporate that hardiness of the wild relatives of the crops, while maintaining the benefits of the domestic varieties.    We are also helping to combat invasive pests. The aggressive Asian Redbay Ambrosia Beetle has Florida's multimillion dollar avocado industry in limbo. The insect spreads laurel wilt, which is deadly to avocado trees. And our researchers, led by our Provost, Dr. Ken Furton, have developed a unique detection program called Detector Canines that couples drone technology and canine scent detection. And this is a really important approach because it holds promise for detecting emerging diseases before they become so widespread that the cost of combating them just becomes crippling to an industry.    We are also working with the University of Florida to build an agribusiness incubator that will help generate high-tech solutions, and add value to raw agricultural products that will help overcome food waste challenges, while stimulating further economic activity.    Finally, we are training the next generation of farmers, particularly from underrepresented groups. The FIU Agroecology Program, with its partners, has trained hundreds of students and developed a veteran and small farmer training program.    So what is the future of our nation's Hispanic-serving institutions in agriculture? Congress and USDA have made important strides to engage with the greater Hispanic-serving community, and particularly the heavy lift by the National Institute on Food and Agriculture, and several of its leaders like Director Ramaswamy and Drs. Qureshi and Lawrence.    There are lots of examples with direct impact, but there are two thoughts on specific policy challenges. First, we have to build capacity at HSIs through the HSACU programs. Post-secondary Hispanic students are now enrolled mostly at HSIs, with over 60 percent of Hispanics nationwide at these institutions. Hispanics represent 50 percent of all farm laborers and supervisors, but only three percent of doctoral recipients in the biological agricultural and life sciences. So we are leaving a ton of talent untapped, and we have not funded any of the programs authorized in 2008 for the HSACU.    Second, we need to incorporate the Hispanic-serving institutions into the land-grant ecosystem. As UF and FIU have proven, collaboration between a land-grant and an HSI is a win for all involved. We need much more such collaborations around the country, and ways to incentivize better collaboration. There is tremendous opportunity in the future, and FIU looks forward to working with Congress and the USDA to accelerate agricultural research, extension, and teaching.    Thank you very much.</t>
   </si>
   <si>
+    <t>Lacy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Lacy. Chairman Davis, Ranking Member DelBene, distinguished Committee Members, I am grateful for the opportunity to represent the University of Georgia College of Agricultural and Environmental Sciences, and all land-grant universities across the nation to talk about the intrinsic value and vital role public university research plays in keeping American agriculture strong, our economy growing, and the world adequately nourished.    I want to specifically thank Congressman Austin Scott, one of the University of Georgia's most distinguished alumni, for his support. He is a tremendous advocate for agriculture.    All agricultural research is important, however, in this brief testimony, it will be best for me to focus on my area of expertise; poultry science. Nowhere else is agricultural research so open and readily accessible to farmers and consumers as it is in the United States. This unique quest for and application of new information relevant to agriculture is directly attributable to our land-grant university system. The land-grant model, coupled with USDA-ARS form a powerful combination that is the envy of the world in its effectiveness at addressing the critical needs of food production.    A great example of that land-grant USDA collaboration can be seen in UGA and USDA efforts to address the threat of avian influenza. Earlier this year, the U.S. faced a renewed threat to our food security as AI spread through 21 western and central states, resulting in the loss of over 50 million birds, including 16 percent of the nation's egg-producing flocks. As waterfowl that carry the AI virus migrate south this fall, the threat of this disease intensifies. Because of the sheer size of the poultry industry in Georgia, a serious outbreak in our state would be devastating to our economy, and would impact the entire U.S. food supply. We have been conducting intensive programs to help producers strengthen biosecurity procedures to protect their poultry flocks. Our scientists have worked tirelessly on research related to response plans, humane euthanasia methods, composting mass-mortalities, in the event of a catastrophic AI outbreak.    The USDA Southeast Poultry Research Laboratory in Athens, Georgia, is recognized as one of the leading poultry disease research facilities in the world. The work done there is of a measurable importance to the health of the nation's poultry flocks. The need for funding, recommended to expand the research facilities at SEPRL, is strategic and vital, as the serious consequences of the current AI situation vividly highlight.    In concert with the biosecurity efforts focused on poultry producers, UGA 4-H is piloting a program with the Centers for Disease Control and Prevention to teach biosecurity principles to even our youngest citizens, helping them better understand and prevent disease transmission.    Continuing this poultry health theme, interest in minimizing the use of pharmaceuticals has spurred research at UGA on novel ways to protect poultry from diseases such as coccidiosis. Non-disease-causing variants of the protozoa that cause this disease have been isolated, that allow poultry to develop resistance without contracting the actual disease. These variants have been employed to produce an effective vaccine now used extensively by poultry producers.    Ag engineers and poultry scientists at UGA teamed up to address the serious problem of heat stress in fast-growing meat-type chickens. This work resulted in the development of ventilation and cooling systems which have eliminated both heat-related mortality and stunted growth during the hot summer months.    I could list scores and scores of additional research projects that have had significant impact in poultry genetics, nutrition, food safety, et cetera, but in the final minute I have, allow me to call attention to the recent National Academy of Sciences report titled, The Critical Role of Animal Science Research in Food Security and Sustainability. This report details the important accomplishments of animal agriculture research, and documents the alarmingly small amount of USDA funding focused on animal agriculture, relative to its economic importance and future expectations. As this report concludes, the need for additional investment in animal agriculture research is critical.    I do wish to thank the Committee for authorizing the extension of the Animal Health Research and Disease Section 1433 Program. Full funding of the 1433 Program is still needed. A well-thought-out research blueprint has been established. The animal agriculture research community and industry counterparts came together in 2012 and identified research priorities which were published in the Farm Animal Integrated Research report, FAIR 2012. We are prepared to meet the challenges facing the future of animal agriculture when research funding is available.    Again, I sincerely thank the Committee for your interest in and support of agriculture research. That support is never taken for granted. Thank you for the foresight you have in regard to providing the investment required to make the advancements needed to assure food security for a growing global population.</t>
   </si>
   <si>
@@ -79,9 +103,18 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Go Dogs.    The Chairman. Dr. Buhler, please.         STATEMENT OF DOUGLAS D. BUHLER, Ph.D., SENIOR         DIRECTOR, MSU AgBioResearch, EAST LANSING, MI</t>
   </si>
   <si>
+    <t>Buhler</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Buhler. Well, thank you. Chairman Davis, Ranking Member DelBene, Congressman Moolenaar, thank you very much for the opportunity to be here today, and represent the hardworking research scientists and prevention professionals at Michigan State University.    One of the benefits of going last is I can start out by saying I want to concur with all of the comments that have been made by the previous speakers. The critical nature of what we do has always been important to this country and the world, but I believe it is more important now than it has ever been as we look at the challenges of feeding a growing world, with the challenges that we face in terms of protecting our natural resources, et cetera.    Michigan State University is very, very fortunate to have very strong support from the State of Michigan and industry partners. That support is very important because it allows us to leverage the Federal investment in our research and outreach programs. And so I really wanted to acknowledge that.    Founded in 1855, Michigan State University was the first agricultural college of its kind in the country. It was actually founded as--it was called the Michigan Agriculture College. So we have very strong roots in agriculture, and if you look at the history of the institution, it is a very interesting history of starting from a state-based regional agricultural college, and growing into a world-class university, really starting and throughout the end of World War II to the present. Michigan is also a very heavily specialty crop state. And when you look at Michigan and you look at our geography, a lot of the places where we grow crops are very unique. And so when we talk about the importance of the Federal investment and the state investment in protecting our specialty crops, it is very critical because many of these crops depend on the university for support. These crops are very important locally, but they are not major crops on a national scale. And so you look at things like tart cherries, asparagus, things like that, that grow in a very unique environment, and so if the university is not there to support these industries, there is not a lot of back-up. And it is really important that we continue to support the public-sector research and outreach to support these important commodities.    I also want to point out that a lot of the work that we do is often difficult to quantify because a lot of it is protecting productivity as opposed to really generating new outputs. And what I am particularly talking about here is pest management. We have made a great deal of investments to protect the inherent productivity of our crops, and that is something that we really need to keep in mind as we look forward because a huge part of what we do, whether it is in the animal industries or the crop industries, is protecting the productivity that we have inherent in our genetics and our environments where we grow our crops.    So Michigan State University, as I said, is really rooted in agriculture. Many of the early pioneers at our institution were involved in things like helping to develop hybrid corn, some of the early plant breeding programs. Plant breeding and genetics continues to be a core of what we do, particularly in the specialty crops. For example, our edible Dry Bean Program has been producing a new variety that has been released into the industry at a rate of at least one per year over the last 20 years. We have also been very involved in processing, particularly in the dairy industry, and we will continue to work in those areas.    An area that I want to make a little bit of a point on, and it is really critical as we move forward, is that we look at the issues that are facing us in the future, they are very complex problems. And as we look at how do we attack some of these big problems like antimicrobial resistance, which has been mentioned, some of the weather issues, and others, climate and so on, some of the water issues, we really need to draw a broader range of scientists into our agricultural fields. We really need to bring in fundamental plant science, fundamental ecology, and things like that, and build teams that can address these issues in a multidisciplinary way. This often requires different funding, and it often requires, and would be very much improved if we could provide more opportunities to work across Federal agencies, particularly NIH and NSF, to bolster some of our agricultural investments. And so we really look forward to continuing to build some of these programs because we think that it is really critical to moving forward in the future.    So I just want to wrap up by just making a point about the importance of the agricultural infrastructure and the facilities that we need simply to do our research. Agriculture, in many cases, is a little bit different than many of the other areas of science, in that we need long-term investments in things like animal herds, plant breeding programs, vineyards and orchards, to just give us the basic capacity to do our work. And that is really where, when you talk about why is agriculture different than other areas of science, I believe that is where that is rooted. We have to have these facilities available, often taking 20, 30, maybe even 50 years to build that capacity so that we can actually do our research. And so when I am asked why should agriculture have this more unique investment, that is the reason that I cite.    So thank you again for this opportunity, and we really appreciate your support, and we look forward to moving forward and addressing these important issues of our country and the world. Thank you.</t>
   </si>
   <si>
@@ -154,12 +187,24 @@
     <t>400263</t>
   </si>
   <si>
+    <t>McGovern</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McGovern. Thank you. I appreciate it.    And I really don't have any questions either, other than to say thank you to the panel. I think it is really important that you are here and talking about the incredible research that you are all doing; because, for a lot of Members of Congress, especially those who are not on this Committee, they don't quite make the connection between our agricultural colleges and universities and what they contribute in terms of agriculture, but in terms of business and in terms of the economy. So I appreciate you being here.    I have seen firsthand how important our land-grant universities are and the incredible work they are doing. I am proud to represent the flagship campus of the five-campus University of Massachusetts system, the UMass Amherst, in Amherst, Massachusetts. And over the years, UMass has expanded into a major research university that covers many areas of research and education, including cutting-edge research and advanced materials and manufacturing, applied life sciences and health data science, and security and many other important fields, driving economic growth in Massachusetts and across the country. But through all that transformation, the school has never forgotten its proud history and roots as an agricultural institution. And I have seen firsthand some of the most innovative and exciting projects revolve around agriculture. Some of you pointed out that some of what you do is unique to the states and areas that you live in. In Massachusetts I have seen this incredible cutting-edge research on cranberries out of UMass. But what is equally exciting to me is the work that they are doing to help, not only protect our food here in the United States, but help find ways to feed the hungry around the world, and to deal with plant diseases and animal diseases, and all the kinds of stuff that oftentimes result in catastrophes.    So I am just here to say thank you. I support our investment in all of you, and it is important that we brag about it a little bit more because I am not always sure that people get it. When you think of agriculture, oftentimes people don't automatically think about colleges and universities; they think of people working on a farm. But, like I said, I have seen firsthand in my own state, and you have all talked about it here today, unbelievable research. It is worth every penny. And it is cost-effective and you have saved lives in the process too. So anyway, I just wanted to say thank you.    I yield back.    The Chairman. Thank you. And I echo the comments from my colleague, Mr. McGovern. And thank you for those comments too.    Mr. Moolenaar, is recognized for 5 minutes.</t>
   </si>
   <si>
     <t>412634</t>
   </si>
   <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman. And I also want to thank all of you as panelists for being here, and especially appreciate Dr. Buhler from Michigan State University. We are very proud of Michigan State.    And I wanted to just direct some of my questions to you if that is all right, and then maybe have one question for the entire group. But first of all, thank you for testifying. And Michigan State has really played a lead role in our country, and especially in our state, in agricultural research. And I had a few questions for you based on the understanding I have, and these are kind of technical questions, but one of the questions would be on the Hatch Act, requiring dollar-for-dollar matching funds from state-appropriations. Also requires each state to use 25 percent of its Hatch Act funds to support multi-state or regional research. Do you believe those percentages should be modified at all, or is that the right approach?</t>
   </si>
   <si>
@@ -199,6 +244,12 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman. And I appreciate you all being here. And, Dr. Heithaus, I appreciate you being a fellow Floridian and doing the research you guys do.    Working off Congressman Moolenaar here, aside from the communications on the success of ag research, how do you believe we can help elevate the importance of ag research? You guys are doing incredible research. I mean it is phenomenal. I look at what we have done in Florida, like on the Papaya Ringspot Virus. It was done over 10 years ago but yet we haven't been able to market it because of the threat of GMO. And, to do the research is great, but if we can't market that--I would like to hear from you guys. What are your thoughts on how we can do that better, because we are constantly being bombarded, and there is a lot of false science out there and a lot of fear, and, of course, there are people that are fueling that, and it is crippling the end-use of what you guys have created. So I will start with you, Dr. Heithaus.</t>
   </si>
   <si>
@@ -250,6 +301,12 @@
     <t>412660</t>
   </si>
   <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. And I appreciate having Mr. Yoho in my debt for over 1 minute, let the record show. But thank you very much for having this hearing. I want to welcome Dr. Moyer and his participation here today. As a WSU alumnus myself, I have a soft spot for Washington State University, and really appreciate your being here to participate today.    Some of the--I don't know if you even know this, but some of the research that is happening at WSU is--there is a small project on my own farm where Dr. Michelle Moyer and--I don't think any relation, and her research team, part of which is my own daughter, Jensina, is working on some wine grape projects on our own farm. So I am very much personally aware of the importance of ag research. As the former director of agriculture for the State of Washington, also very happy to have been a great partner, our agency and--as Washington State University, and so appreciate everything that you do. With all of our representatives here from research universities around the country, I don't understand why the line isn't out the door this morning to listen to some of the exciting things that are happening in agricultural research. Every one of us, as Americans and citizens of the world, are a part of agriculture at least three times a day, and this is very exciting, the important stuff that we are working on.    Dr. Moyer, you talked a little bit about the Specialty Crop Research Initiative Program, and I helped to administer that, was responsible for making sure that projects that were worthy were selected, and important enough to get the funding. I wanted to give you a little bit of an opportunity to elaborate on the importance of that, maybe help explain to some of my colleagues who may not be as informed on what the Specialty Crop Program does and can do?</t>
   </si>
   <si>
@@ -287,6 +344,12 @@
   </si>
   <si>
     <t>412317</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Glenn</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman. Thanks to all of you on the panel. This is a very important topic. The research that you do, or universities do. I have to do a shout-out to my university where I graduated, Penn State University, their agricultural sciences. What you all do is about national security. I would say it is one of the number one important things we have for national security, but it is also about combating hunger.    And so my first--Dr. Brashears, is there an estimate in terms of the work from biotechnology of essentially--I mean just cut to the quick, how many lives that have been--how many people have been prevented from starvation because of the result of biotechnology being applied in agriculture? Are there any estimates at all?</t>
@@ -731,7 +794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,7 +802,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,2573 +824,3005 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G42" t="s">
+        <v>61</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G48" t="s">
+        <v>76</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G62" t="s">
+        <v>95</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G64" t="s">
+        <v>95</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G65" t="s">
+        <v>95</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>95</v>
+      </c>
       <c r="H70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
+        <v>110</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G78" t="s">
+        <v>110</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>110</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G81" t="s">
+        <v>110</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G83" t="s">
+        <v>110</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G99" t="s">
+        <v>76</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G100" t="s">
+        <v>76</v>
+      </c>
       <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>25</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>32</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G108" t="s">
+        <v>76</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
+        <v>77</v>
+      </c>
+      <c r="I108" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412505</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>DelBene</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>412417</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Scott</t>
@@ -794,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,7 +811,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,3002 +836,3220 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I64" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G68" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I68" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I70" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I78" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H99" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G100" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H100" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H101" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H102" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G108" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="H108" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I108" t="s">
-        <v>143</v>
+        <v>80</v>
+      </c>
+      <c r="J108" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
